--- a/個人課表/A9876537.xlsx
+++ b/個人課表/A9876537.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashitogi/Documents/GitHub/group_7/個人課表/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345DE681-8C74-D74D-AE91-A592AADBFE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9132034E-C84F-4B0B-80E5-D3A5F1B07271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16900" yWindow="500" windowWidth="10000" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,16 +81,13 @@
   <si>
     <t>16:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企業行為</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -171,6 +168,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,16 +454,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -488,7 +488,7 @@
       <c r="D2" s="5"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -498,7 +498,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -508,40 +508,40 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
+      <c r="B7" s="6">
+        <v>5698</v>
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
+      <c r="B8" s="6">
+        <v>5698</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -550,7 +550,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -558,14 +558,14 @@
       <c r="D10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1">
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1">
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
   </sheetData>
